--- a/Bin_data/Burley/Burley55.xlsx
+++ b/Bin_data/Burley/Burley55.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD32"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2422,13 +2422,13 @@
     </row>
     <row r="13" spans="1:56">
       <c r="A13" s="1">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.17184449904</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.1452277236</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.43784419128</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.52210263648</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0.0943983246</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0.07256208228000001</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>0.02408643864</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>0.02706453552</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>0.01629168468</v>
+        <v>0</v>
       </c>
       <c r="AV13">
         <v>0</v>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>0.318959907</v>
+        <v>0</v>
       </c>
       <c r="BC13">
-        <v>0.35617378164</v>
+        <v>0</v>
       </c>
       <c r="BD13">
         <v>0</v>
@@ -2592,16 +2592,16 @@
     </row>
     <row r="14" spans="1:56">
       <c r="A14" s="1">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="B14">
-        <v>0.04899200052</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.17184449904</v>
       </c>
       <c r="D14">
-        <v>1.5539390766</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.19992985452</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1448556966</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2622,106 +2622,106 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.11089535712</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1452277236</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.43784419128</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.52210263648</v>
       </c>
       <c r="Q14">
-        <v>0.5452509032399999</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0.76159248684</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0.85454563176</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.8875488246</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1.47404698368</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1.6602627336</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1.63108818264</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>1.74390751404</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>1.7573941428</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1.52801850336</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>1.128155973</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.771730596</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.6930403854</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>0.68683160052</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>0.72833271984</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>0.64456418856</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>0.46674579336</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>0.543386232</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>0.37419925044</v>
+        <v>0.0943983246</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>0.07256208228000001</v>
       </c>
       <c r="AK14">
-        <v>0.21938302188</v>
+        <v>0</v>
       </c>
       <c r="AL14">
-        <v>0.3256392438</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>0.15063232164</v>
+        <v>0.02408643864</v>
       </c>
       <c r="AN14">
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.02706453552</v>
       </c>
       <c r="AP14">
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0.05150148168</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>0.0719002338</v>
+        <v>0</v>
       </c>
       <c r="AS14">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>0.23505750132</v>
+        <v>0.01629168468</v>
       </c>
       <c r="AV14">
-        <v>0.1596131364</v>
+        <v>0</v>
       </c>
       <c r="AW14">
         <v>0</v>
@@ -2748,42 +2748,42 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0.43431477528</v>
+        <v>0</v>
       </c>
       <c r="BB14">
-        <v>0.45574734756</v>
+        <v>0.318959907</v>
       </c>
       <c r="BC14">
-        <v>0.17144348436</v>
+        <v>0.35617378164</v>
       </c>
       <c r="BD14">
-        <v>0.15245793696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:56">
       <c r="A15" s="1">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.04899200052</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1.5539390766</v>
       </c>
       <c r="E15">
-        <v>0.02253360624</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.19992985452</v>
       </c>
       <c r="H15">
-        <v>0.02435446404</v>
+        <v>0.1448556966</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.08318368824</v>
+        <v>0.11089535712</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2810,129 +2810,129 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.5452509032399999</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.76159248684</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.85454563176</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.8875488246</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.47404698368</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.6602627336</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1.63108818264</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1.74390751404</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1.7573941428</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1.52801850336</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1.128155973</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>0.771730596</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>0.6930403854</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>0.68683160052</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>0.72833271984</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>0.64456418856</v>
       </c>
       <c r="AG15">
-        <v>0.19722725124</v>
+        <v>0.46674579336</v>
       </c>
       <c r="AH15">
-        <v>0.2360515464</v>
+        <v>0.543386232</v>
       </c>
       <c r="AI15">
-        <v>0.2233860324</v>
+        <v>0.37419925044</v>
       </c>
       <c r="AJ15">
-        <v>0.42126755328</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>0.13297506276</v>
+        <v>0.21938302188</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>0.3256392438</v>
       </c>
       <c r="AM15">
-        <v>0.08302265172000001</v>
+        <v>0.15063232164</v>
       </c>
       <c r="AN15">
-        <v>0.22482523752</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>0.23605425708</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.25345433328</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>0.23435206068</v>
+        <v>0.05150148168</v>
       </c>
       <c r="AR15">
-        <v>0.09444733812</v>
+        <v>0.0719002338</v>
       </c>
       <c r="AS15">
-        <v>0.19508061396</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>0.53048156964</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>0.34523651976</v>
+        <v>0.23505750132</v>
       </c>
       <c r="AV15">
-        <v>0.23537205084</v>
+        <v>0.1596131364</v>
       </c>
       <c r="AW15">
-        <v>0.2953310754</v>
+        <v>0</v>
       </c>
       <c r="AX15">
-        <v>0.64859342076</v>
+        <v>0</v>
       </c>
       <c r="AY15">
-        <v>2.40801758628</v>
+        <v>0</v>
       </c>
       <c r="AZ15">
-        <v>0.4242825486</v>
+        <v>0</v>
       </c>
       <c r="BA15">
-        <v>0.21965287284</v>
+        <v>0.43431477528</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>0.45574734756</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>0.17144348436</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>0.15245793696</v>
       </c>
     </row>
     <row r="16" spans="1:56">
       <c r="A16" s="1">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.02253360624</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02435446404</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.08318368824</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.08976914699999999</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0.4684211042400001</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0.50877350376</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.5843411216400001</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.45231877992</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3028,67 +3028,67 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>0.19722725124</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.2360515464</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.2233860324</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>0.42126755328</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>0.13297506276</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>0.08302265172000001</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>0.22482523752</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>0.23605425708</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>0.25345433328</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>0.23435206068</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.09444733812</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>0.19508061396</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>0.53048156964</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>0.34523651976</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>0.23537205084</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>0.2953310754</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>0.64859342076</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>2.40801758628</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>0.4242825486</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>0.21965287284</v>
       </c>
       <c r="BB16">
         <v>0</v>
@@ -3102,16 +3102,16 @@
     </row>
     <row r="17" spans="1:56">
       <c r="A17" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1326626154</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1.38504390804</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3138,49 +3138,49 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.254058483</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.33991860816</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.20732564064</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.14076516984</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.23922641652</v>
+        <v>0.08976914699999999</v>
       </c>
       <c r="R17">
-        <v>0.13009897596</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0.10114481988</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>0.13338929892</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.32492522856</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>0.2669378088</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.45700250304</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>0.4684211042400001</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>0.50877350376</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>0.5843411216400001</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>0.45231877992</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>0.02410834536</v>
+        <v>0</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="AT17">
-        <v>0.04086610104</v>
+        <v>0</v>
       </c>
       <c r="AU17">
-        <v>0.0373415532</v>
+        <v>0</v>
       </c>
       <c r="AV17">
         <v>0</v>
@@ -3261,27 +3261,27 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>0.157720086</v>
+        <v>0</v>
       </c>
       <c r="BC17">
-        <v>0.07923776796</v>
+        <v>0</v>
       </c>
       <c r="BD17">
-        <v>0.14767734852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:56">
       <c r="A18" s="1">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1326626154</v>
       </c>
       <c r="D18">
-        <v>0.68750108316</v>
+        <v>1.38504390804</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0332661288</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02157402552</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3308,43 +3308,43 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.254058483</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.33991860816</v>
       </c>
       <c r="O18">
-        <v>0.18400560528</v>
+        <v>0.20732564064</v>
       </c>
       <c r="P18">
-        <v>0.1314441924</v>
+        <v>0.14076516984</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.23922641652</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>0.13009897596</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.10114481988</v>
       </c>
       <c r="T18">
-        <v>0.09086077656</v>
+        <v>0.13338929892</v>
       </c>
       <c r="U18">
-        <v>0.3123516564</v>
+        <v>0.32492522856</v>
       </c>
       <c r="V18">
-        <v>0.3803728518</v>
+        <v>0.2669378088</v>
       </c>
       <c r="W18">
-        <v>0.21357868152</v>
+        <v>0.45700250304</v>
       </c>
       <c r="X18">
-        <v>0.24083130504</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>0.15676841604</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3353,117 +3353,117 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.1044098616</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.12548644968</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.22269110256</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>0.31198056984</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.25976656656</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>0.31198217412</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>0.30633245316</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>0.30129855444</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0.38423203032</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>0.18071539296</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>0.1140806274</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>0.13348278972</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>0.09428608031999999</v>
+        <v>0.02410834536</v>
       </c>
       <c r="AO18">
-        <v>0.12380958984</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.18328473036</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
-        <v>0.10669944576</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>0.07744263395999999</v>
+        <v>0</v>
       </c>
       <c r="AS18">
         <v>0</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>0.04086610104</v>
       </c>
       <c r="AU18">
-        <v>0.1838751054</v>
+        <v>0.0373415532</v>
       </c>
       <c r="AV18">
-        <v>0.16420292616</v>
+        <v>0</v>
       </c>
       <c r="AW18">
-        <v>0.10899965136</v>
+        <v>0</v>
       </c>
       <c r="AX18">
-        <v>0.37686412548</v>
+        <v>0</v>
       </c>
       <c r="AY18">
-        <v>1.62571793832</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
-        <v>0.5859710701199999</v>
+        <v>0</v>
       </c>
       <c r="BA18">
-        <v>0.0755903544</v>
+        <v>0</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>0.157720086</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>0.07923776796</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>0.14767734852</v>
       </c>
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="1">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="B19">
-        <v>0.23557894764</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.95887356444</v>
+        <v>0.68750108316</v>
       </c>
       <c r="E19">
-        <v>0.26462399448</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0332661288</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02157402552</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.18400560528</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1314441924</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3499,22 +3499,22 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.09086077656</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>0.3123516564</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>0.3803728518</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.21357868152</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>0.24083130504</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>0.15676841604</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3523,82 +3523,82 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>0.1044098616</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>0.12548644968</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>0.22269110256</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>0.31198056984</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>0.25976656656</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>0.31198217412</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>0.30633245316</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>0.30129855444</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>0.38423203032</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>0.18071539296</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>0.1140806274</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>0.13348278972</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>0.09428608031999999</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>0.12380958984</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>0.18328473036</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.10669944576</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>0.07744263395999999</v>
       </c>
       <c r="AS19">
-        <v>0.07272649332</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>0.17336198196</v>
+        <v>0</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>0.1838751054</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>0.16420292616</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>0.10899965136</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>0.37686412548</v>
       </c>
       <c r="AY19">
-        <v>0.48955622088</v>
+        <v>1.62571793832</v>
       </c>
       <c r="AZ19">
-        <v>0.09319594439999999</v>
+        <v>0.5859710701199999</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>0.0755903544</v>
       </c>
       <c r="BB19">
         <v>0</v>
@@ -3612,19 +3612,19 @@
     </row>
     <row r="20" spans="1:56">
       <c r="A20" s="1">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.23557894764</v>
       </c>
       <c r="C20">
-        <v>0.16726295196</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.95887356444</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.26462399448</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03424656516</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3744,16 +3744,16 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>0.07272649332</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>0.17336198196</v>
       </c>
       <c r="AU20">
         <v>0</v>
       </c>
       <c r="AV20">
-        <v>0.07323460752000001</v>
+        <v>0</v>
       </c>
       <c r="AW20">
         <v>0</v>
@@ -3762,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>0.48955622088</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>0.09319594439999999</v>
       </c>
       <c r="BA20">
         <v>0</v>
@@ -3777,36 +3777,36 @@
         <v>0</v>
       </c>
       <c r="BD20">
-        <v>0.08417845248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:56">
       <c r="A21" s="1">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.16726295196</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.52523219952</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.28551188604</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.19003410228</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.03424656516</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3836,25 +3836,25 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0.3738406662</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0.49924756572</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>0.5459460543600001</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>0.6317988219599999</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.47183761212</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>0.3992198226</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.38188911768</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0.06546065388</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -3917,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="AT21">
-        <v>0.02779713828</v>
+        <v>0</v>
       </c>
       <c r="AU21">
         <v>0</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>0.07323460752000001</v>
       </c>
       <c r="AW21">
         <v>0</v>
@@ -3932,27 +3932,27 @@
         <v>0</v>
       </c>
       <c r="AY21">
-        <v>0.18859628016</v>
+        <v>0</v>
       </c>
       <c r="AZ21">
-        <v>0.16801585716</v>
+        <v>0</v>
       </c>
       <c r="BA21">
-        <v>0.34457428404</v>
+        <v>0</v>
       </c>
       <c r="BB21">
-        <v>0.3657738484800001</v>
+        <v>0</v>
       </c>
       <c r="BC21">
-        <v>0.24916725456</v>
+        <v>0</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>0.08417845248</v>
       </c>
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="1">
-        <v>0.6599999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3961,16 +3961,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.0041166434</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.27944898</v>
+        <v>0.52523219952</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.28551188604</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.19003410228</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.048028824</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3991,58 +3991,58 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.12924533304</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.1827576414</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.26643832452</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.47855462184</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.97887628068</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1.79031734292</v>
+        <v>0.3738406662</v>
       </c>
       <c r="T22">
-        <v>2.11489615764</v>
+        <v>0.49924756572</v>
       </c>
       <c r="U22">
-        <v>1.23707015496</v>
+        <v>0.5459460543600001</v>
       </c>
       <c r="V22">
-        <v>1.73715244416</v>
+        <v>0.6317988219599999</v>
       </c>
       <c r="W22">
-        <v>1.24333237896</v>
+        <v>0.47183761212</v>
       </c>
       <c r="X22">
-        <v>1.14172945416</v>
+        <v>0.3992198226</v>
       </c>
       <c r="Y22">
-        <v>1.10190364572</v>
+        <v>0.38188911768</v>
       </c>
       <c r="Z22">
-        <v>0.9039630984000001</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.45033351108</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.24066152796</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.24215815524</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>0.1045954602</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.07865187384</v>
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -4051,22 +4051,22 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>0.10000788324</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>0.06546065388</v>
       </c>
       <c r="AJ22">
-        <v>0.07973924376000001</v>
+        <v>0</v>
       </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>0.02850302148</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>0.02875539132</v>
+        <v>0</v>
       </c>
       <c r="AN22">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>0.02779713828</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -4102,19 +4102,19 @@
         <v>0</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>0.18859628016</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>0.16801585716</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>0.34457428404</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>0.3657738484800001</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>0.24916725456</v>
       </c>
       <c r="BD22">
         <v>0</v>
@@ -4122,19 +4122,19 @@
     </row>
     <row r="23" spans="1:56">
       <c r="A23" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.10309562436</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4.0041166434</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.27944898</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07381768032</v>
+        <v>0.048028824</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -4158,61 +4158,61 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.08962293624000001</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.12924533304</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.1827576414</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.26643832452</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>0.47855462184</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>0.97887628068</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.79031734292</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2.11489615764</v>
       </c>
       <c r="U23">
-        <v>0.8888053077599999</v>
+        <v>1.23707015496</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.73715244416</v>
       </c>
       <c r="W23">
-        <v>0.99343362804</v>
+        <v>1.24333237896</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1.14172945416</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1.10190364572</v>
       </c>
       <c r="Z23">
-        <v>0.55030975128</v>
+        <v>0.9039630984000001</v>
       </c>
       <c r="AA23">
-        <v>0.22677183768</v>
+        <v>0.45033351108</v>
       </c>
       <c r="AB23">
-        <v>0.1633079592</v>
+        <v>0.24066152796</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>0.24215815524</v>
       </c>
       <c r="AD23">
-        <v>0.09227099400000001</v>
+        <v>0.1045954602</v>
       </c>
       <c r="AE23">
-        <v>0.06341104788</v>
+        <v>0.07865187384</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -4221,22 +4221,22 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>0.10000788324</v>
       </c>
       <c r="AI23">
-        <v>0.077071824</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>0.07973924376000001</v>
       </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>0.02850302148</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>0.02875539132</v>
       </c>
       <c r="AN23">
         <v>0</v>
@@ -4292,19 +4292,19 @@
     </row>
     <row r="24" spans="1:56">
       <c r="A24" s="1">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B24">
-        <v>0.7704103288800001</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.10309562436</v>
       </c>
       <c r="D24">
-        <v>2.89603253664</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7233322343999999</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07381768032</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08962293624000001</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -4352,13 +4352,13 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>0.8888053077599999</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>0.99343362804</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -4367,22 +4367,22 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>0.55030975128</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>0.22677183768</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.1633079592</v>
       </c>
       <c r="AC24">
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>0.09227099400000001</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>0.06341104788</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>0.077071824</v>
       </c>
       <c r="AJ24">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>0.0206545518</v>
+        <v>0</v>
       </c>
       <c r="AN24">
         <v>0</v>
@@ -4451,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>0.06095290368</v>
+        <v>0</v>
       </c>
       <c r="BC24">
-        <v>0.05945942964</v>
+        <v>0</v>
       </c>
       <c r="BD24">
         <v>0</v>
@@ -4462,19 +4462,19 @@
     </row>
     <row r="25" spans="1:56">
       <c r="A25" s="1">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.7704103288800001</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2.89603253664</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.7233322343999999</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4486,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.03043462992</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08041619459999999</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.04909030416</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -4540,34 +4540,34 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.07749186876</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.0509007618</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.14158219092</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>0.17810511876</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>0.09425344152000001</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>0.24055276884</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>0.114121011</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>0.10834294764</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>0.11314754496</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0.10623757908</v>
+        <v>0</v>
       </c>
       <c r="AK25">
         <v>0</v>
@@ -4576,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0.08856162204</v>
+        <v>0.0206545518</v>
       </c>
       <c r="AN25">
-        <v>0.08121081108</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="AT25">
-        <v>0.10596274932</v>
+        <v>0</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>0.06095290368</v>
       </c>
       <c r="BC25">
-        <v>0.21496212408</v>
+        <v>0.05945942964</v>
       </c>
       <c r="BD25">
         <v>0</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="26" spans="1:56">
       <c r="A26" s="1">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="B26">
-        <v>0.53394703572</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4653,16 +4653,16 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.28191337536</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0.10550752104</v>
+        <v>0.03043462992</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.08041619459999999</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.04909030416</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4671,10 +4671,10 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0.24483033252</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>0.07123838532</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -4701,79 +4701,79 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0.10757632308</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.1106057016</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.20023306344</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>0.07749186876</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>0.0509007618</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>0.14158219092</v>
       </c>
       <c r="AD26">
-        <v>0.18904879776</v>
+        <v>0.17810511876</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>0.09425344152000001</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>0.24055276884</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>0.114121011</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>0.10834294764</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>0.11314754496</v>
       </c>
       <c r="AJ26">
-        <v>0.04064061672</v>
+        <v>0.10623757908</v>
       </c>
       <c r="AK26">
-        <v>0.03693738528</v>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>0.05548092588</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>0.08856162204</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>0.08121081108</v>
       </c>
       <c r="AO26">
-        <v>0.09228045372</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.13852620348</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
-        <v>0.16270143072</v>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <v>0.1681329696</v>
+        <v>0</v>
       </c>
       <c r="AS26">
         <v>0</v>
       </c>
       <c r="AT26">
-        <v>0.24250180308</v>
+        <v>0.10596274932</v>
       </c>
       <c r="AU26">
-        <v>0.45538804416</v>
+        <v>0</v>
       </c>
       <c r="AV26">
-        <v>0.10153305564</v>
+        <v>0</v>
       </c>
       <c r="AW26">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>0.7993060670400001</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
         <v>0</v>
@@ -4791,63 +4791,63 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>0.17830858572</v>
+        <v>0</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>0.21496212408</v>
       </c>
       <c r="BD26">
-        <v>0.56541675816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:56">
       <c r="A27" s="1">
-        <v>0.8099999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.53394703572</v>
       </c>
       <c r="C27">
-        <v>2.47327178592</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>6.33813543168</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.07250106432</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.1359403254</v>
+        <v>0.28191337536</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.10550752104</v>
       </c>
       <c r="J27">
-        <v>0.48653176584</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.11533268496</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.24483033252</v>
       </c>
       <c r="O27">
-        <v>0.09700987116000001</v>
+        <v>0.07123838532</v>
       </c>
       <c r="P27">
-        <v>0.27422881884</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -4856,28 +4856,28 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0.22951449264</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0.34960182096</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0.26843321904</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0.22483309296</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>0.10757632308</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>0.1106057016</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.20023306344</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -4886,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.1406757174</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>0.18904879776</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.03423821184</v>
+        <v>0</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>0.04064061672</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>0.03693738528</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>0.05548092588</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -4922,141 +4922,141 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.09228045372</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>0.13852620348</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>0.16270143072</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>0.1681329696</v>
       </c>
       <c r="AS27">
-        <v>0.17166105792</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>0.24250180308</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>0.45538804416</v>
       </c>
       <c r="AV27">
-        <v>0.4154728386</v>
+        <v>0.10153305564</v>
       </c>
       <c r="AW27">
-        <v>0.47888858868</v>
+        <v>0</v>
       </c>
       <c r="AX27">
-        <v>1.21707081324</v>
+        <v>0</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>0.7993060670400001</v>
       </c>
       <c r="AZ27">
-        <v>2.52058786704</v>
+        <v>0</v>
       </c>
       <c r="BA27">
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>0.17830858572</v>
       </c>
       <c r="BC27">
         <v>0</v>
       </c>
       <c r="BD27">
-        <v>0.32443747212</v>
+        <v>0.56541675816</v>
       </c>
     </row>
     <row r="28" spans="1:56">
       <c r="A28" s="1">
-        <v>0.84</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2.47327178592</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>6.33813543168</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.07250106432</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.1359403254</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>0.48653176584</v>
       </c>
       <c r="K28">
-        <v>0.69408266952</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.11533268496</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0.29162695884</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0.25385081172</v>
+        <v>0.09700987116000001</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>0.27422881884</v>
       </c>
       <c r="Q28">
-        <v>0.13221491064</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>0.36455254884</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>0.4839749860800001</v>
+        <v>0.22951449264</v>
       </c>
       <c r="T28">
-        <v>0.58988661972</v>
+        <v>0.34960182096</v>
       </c>
       <c r="U28">
-        <v>0.47535220236</v>
+        <v>0.26843321904</v>
       </c>
       <c r="V28">
-        <v>0.6066606948000001</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0.57920244684</v>
+        <v>0.22483309296</v>
       </c>
       <c r="X28">
-        <v>0.39352330092</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.25201418772</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.24890149728</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.21740610636</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>0.11325713388</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.12105271764</v>
+        <v>0.1406757174</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -5068,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>0.03423821184</v>
       </c>
       <c r="AH28">
-        <v>0.04076895912</v>
+        <v>0</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>0.17166105792</v>
       </c>
       <c r="AT28">
         <v>0</v>
@@ -5113,22 +5113,22 @@
         <v>0</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>0.4154728386</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>0.47888858868</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>1.21707081324</v>
       </c>
       <c r="AY28">
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>2.52058786704</v>
       </c>
       <c r="BA28">
-        <v>0.36574159692</v>
+        <v>0</v>
       </c>
       <c r="BB28">
         <v>0</v>
@@ -5137,24 +5137,24 @@
         <v>0</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>0.32443747212</v>
       </c>
     </row>
     <row r="29" spans="1:56">
       <c r="A29" s="1">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="B29">
-        <v>2.03441269392</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1.1060689098</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>6.24589364664</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.077777154</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -5163,70 +5163,70 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.32145461772</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0.1346795826</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.38676292032</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0.21900955656</v>
+        <v>0.69408266952</v>
       </c>
       <c r="L29">
-        <v>0.30145765476</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0.18581993532</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>0.29162695884</v>
       </c>
       <c r="O29">
-        <v>0.23507935272</v>
+        <v>0.25385081172</v>
       </c>
       <c r="P29">
-        <v>0.47944228656</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>0.13221491064</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>0.36455254884</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>0.4839749860800001</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>0.58988661972</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>0.47535220236</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>0.6066606948000001</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>0.57920244684</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>0.39352330092</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>0.25201418772</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.24890149728</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>0.21740610636</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>0.11325713388</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>0.12105271764</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -5241,16 +5241,16 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>0.04076895912</v>
       </c>
       <c r="AI29">
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0.096272013</v>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <v>0.06227018352000001</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -5259,19 +5259,19 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>0.0442194888</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.05521754736</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
-        <v>0.03531413052</v>
+        <v>0</v>
       </c>
       <c r="AR29">
-        <v>0.05085545472</v>
+        <v>0</v>
       </c>
       <c r="AS29">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="AW29">
-        <v>0.08875983359999999</v>
+        <v>0</v>
       </c>
       <c r="AX29">
-        <v>0.15650149704</v>
+        <v>0</v>
       </c>
       <c r="AY29">
         <v>0</v>
@@ -5298,33 +5298,33 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0.59306962188</v>
+        <v>0.36574159692</v>
       </c>
       <c r="BB29">
-        <v>0.07549885512</v>
+        <v>0</v>
       </c>
       <c r="BC29">
-        <v>0.21439526004</v>
+        <v>0</v>
       </c>
       <c r="BD29">
-        <v>0.30294454572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:56">
       <c r="A30" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2.03441269392</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1.1060689098</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>6.24589364664</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.077777154</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5333,40 +5333,40 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.32145461772</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.1346795826</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>0.38676292032</v>
       </c>
       <c r="K30">
-        <v>0.29380236252</v>
+        <v>0.21900955656</v>
       </c>
       <c r="L30">
-        <v>0.16788668496</v>
+        <v>0.30145765476</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.18581993532</v>
       </c>
       <c r="N30">
-        <v>0.34618310028</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.23507935272</v>
       </c>
       <c r="P30">
-        <v>0.5539957782</v>
+        <v>0.47944228656</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0.14432689272</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>0.08383945152</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -5375,13 +5375,13 @@
         <v>0</v>
       </c>
       <c r="V30">
-        <v>0.06567595932</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0.09974018976</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>0.07454912136000001</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.05556733571999999</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -5417,10 +5417,10 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>0.096272013</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>0.06227018352000001</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -5429,25 +5429,25 @@
         <v>0</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>0.0442194888</v>
       </c>
       <c r="AO30">
-        <v>0.07135903824000001</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>0.05521754736</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.03531413052</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>0.05085545472</v>
       </c>
       <c r="AS30">
-        <v>0.1162820868</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>0.04819799256</v>
+        <v>0</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -5456,39 +5456,39 @@
         <v>0</v>
       </c>
       <c r="AW30">
-        <v>0.06100097676</v>
+        <v>0.08875983359999999</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>0.15650149704</v>
       </c>
       <c r="AY30">
-        <v>0.94328383524</v>
+        <v>0</v>
       </c>
       <c r="AZ30">
-        <v>4.77640967784</v>
+        <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>0.59306962188</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>0.07549885512</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>0.21439526004</v>
       </c>
       <c r="BD30">
-        <v>0.5087041878</v>
+        <v>0.30294454572</v>
       </c>
     </row>
     <row r="31" spans="1:56">
       <c r="A31" s="1">
-        <v>0.9299999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="B31">
-        <v>5.32318365132</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>3.81690762288</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5512,46 +5512,46 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.29380236252</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.16788668496</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0.31747063728</v>
+        <v>0.34618310028</v>
       </c>
       <c r="O31">
-        <v>0.50496604944</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>0.5539957782</v>
       </c>
       <c r="Q31">
-        <v>0.22916830008</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.14432689272</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>0.08383945152</v>
       </c>
       <c r="T31">
-        <v>0.2594505234</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0.11600360592</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>0.06567595932</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>0.09974018976</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>0.07454912136000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -5560,10 +5560,10 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>0.05556733571999999</v>
       </c>
       <c r="AB31">
-        <v>0.03564046320000001</v>
+        <v>0</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>0.07135903824000001</v>
       </c>
       <c r="AP31">
         <v>0</v>
@@ -5614,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>0.1162820868</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>0.04819799256</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -5626,16 +5626,16 @@
         <v>0</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>0.06100097676</v>
       </c>
       <c r="AX31">
-        <v>0.62664814272</v>
+        <v>0</v>
       </c>
       <c r="AY31">
-        <v>0</v>
+        <v>0.94328383524</v>
       </c>
       <c r="AZ31">
-        <v>0</v>
+        <v>4.77640967784</v>
       </c>
       <c r="BA31">
         <v>0</v>
@@ -5647,176 +5647,686 @@
         <v>0</v>
       </c>
       <c r="BD31">
-        <v>0</v>
+        <v>0.5087041878</v>
       </c>
     </row>
     <row r="32" spans="1:56">
       <c r="A32" s="1">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="B32">
+        <v>5.32318365132</v>
+      </c>
+      <c r="C32">
+        <v>3.81690762288</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0.31747063728</v>
+      </c>
+      <c r="O32">
+        <v>0.50496604944</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0.22916830008</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0.2594505234</v>
+      </c>
+      <c r="U32">
+        <v>0.11600360592</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0.03564046320000001</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0.62664814272</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33" s="1">
         <v>0.96</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
         <v>0.09836327496000001</v>
       </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BD32">
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0</v>
       </c>
     </row>

--- a/Bin_data/Burley/Burley55.xlsx
+++ b/Bin_data/Burley/Burley55.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5819,6 +5819,11 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
